--- a/IdeaProjects/ParameterFile.xlsx
+++ b/IdeaProjects/ParameterFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tushar.khushal.lakhe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE3F715-3D62-477F-97A8-E486E17BFB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A28DB9D-EC73-4843-9EE6-4C506A58808F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{48B63BE7-CEF8-4441-8FC9-AD164F5F8ED7}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6565" uniqueCount="1160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6565" uniqueCount="1162">
   <si>
     <t>url</t>
   </si>
@@ -3552,6 +3552,12 @@
   </si>
   <si>
     <t>Api</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>Performance</t>
   </si>
 </sst>
 </file>
@@ -4059,8 +4065,8 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4124,7 +4130,7 @@
         <v>1158</v>
       </c>
       <c r="F2" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2">
@@ -4251,7 +4257,7 @@
         <v>201</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>18</v>
@@ -4324,7 +4330,7 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>1147</v>

--- a/IdeaProjects/ParameterFile.xlsx
+++ b/IdeaProjects/ParameterFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tushar.khushal.lakhe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A28DB9D-EC73-4843-9EE6-4C506A58808F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEAA2B4-4952-4E16-A2EC-995E4218FDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{48B63BE7-CEF8-4441-8FC9-AD164F5F8ED7}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6565" uniqueCount="1162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6565" uniqueCount="1160">
   <si>
     <t>url</t>
   </si>
@@ -3552,12 +3552,6 @@
   </si>
   <si>
     <t>Api</t>
-  </si>
-  <si>
-    <t>Both</t>
-  </si>
-  <si>
-    <t>Performance</t>
   </si>
 </sst>
 </file>
@@ -4064,9 +4058,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4130,7 +4124,7 @@
         <v>1158</v>
       </c>
       <c r="F2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2">
@@ -4257,7 +4251,7 @@
         <v>201</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>18</v>
@@ -4330,7 +4324,7 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>1147</v>

--- a/IdeaProjects/ParameterFile.xlsx
+++ b/IdeaProjects/ParameterFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tushar.khushal.lakhe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEAA2B4-4952-4E16-A2EC-995E4218FDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFB4A5A-8638-49E2-AD33-C1187A6CCFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{48B63BE7-CEF8-4441-8FC9-AD164F5F8ED7}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6565" uniqueCount="1160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6565" uniqueCount="1161">
   <si>
     <t>url</t>
   </si>
@@ -3552,6 +3552,9 @@
   </si>
   <si>
     <t>Api</t>
+  </si>
+  <si>
+    <t>Both</t>
   </si>
 </sst>
 </file>
@@ -4058,9 +4061,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4124,14 +4127,14 @@
         <v>1158</v>
       </c>
       <c r="F2" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I2">
-        <v>30</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -4251,10 +4254,16 @@
         <v>201</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>18</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">

--- a/IdeaProjects/ParameterFile.xlsx
+++ b/IdeaProjects/ParameterFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tushar.khushal.lakhe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFB4A5A-8638-49E2-AD33-C1187A6CCFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADDA43D-607B-4B32-98C6-D1D47D432BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{48B63BE7-CEF8-4441-8FC9-AD164F5F8ED7}"/>
   </bookViews>
@@ -4061,7 +4061,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
@@ -4131,10 +4131,10 @@
       </c>
       <c r="G2" s="6"/>
       <c r="H2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -4260,10 +4260,10 @@
         <v>18</v>
       </c>
       <c r="H7">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>200</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
